--- a/download/现金交易.xlsx
+++ b/download/现金交易.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>交易对方名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贷方金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,11 +50,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某某公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品或服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台式电脑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,61 +397,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>20150101</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>20150101</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
     </row>
